--- a/catalogsList/05072021/tract.xlsx
+++ b/catalogsList/05072021/tract.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="844">
   <si>
     <t>id</t>
   </si>
@@ -1291,6 +1291,1263 @@
   </si>
   <si>
     <t>subjectId</t>
+  </si>
+  <si>
+    <t>G_16028</t>
+  </si>
+  <si>
+    <t>G_U4772</t>
+  </si>
+  <si>
+    <t>технический участок № 1 ООО "Арбижил"</t>
+  </si>
+  <si>
+    <t>G_7763</t>
+  </si>
+  <si>
+    <t>G_U4925</t>
+  </si>
+  <si>
+    <t>ВОСТ.ЧОСТЬ</t>
+  </si>
+  <si>
+    <t>P_3200</t>
+  </si>
+  <si>
+    <t>технический участок № 3 СПК "Баргузин"</t>
+  </si>
+  <si>
+    <t>G_7762</t>
+  </si>
+  <si>
+    <t>ВОСТ. ЧАСТЬ</t>
+  </si>
+  <si>
+    <t>P_3201</t>
+  </si>
+  <si>
+    <t>технический участок № 5 СПК "Уро"</t>
+  </si>
+  <si>
+    <t>P_2386</t>
+  </si>
+  <si>
+    <t>G_U4828</t>
+  </si>
+  <si>
+    <t>технический участок № 20  СПК «Улекчин»</t>
+  </si>
+  <si>
+    <t>P_3202</t>
+  </si>
+  <si>
+    <t>технический участок № 6 СПК "Бодон"</t>
+  </si>
+  <si>
+    <t>G_8615</t>
+  </si>
+  <si>
+    <t>G_U4923</t>
+  </si>
+  <si>
+    <t>ЗАП. ЧАСТЬ</t>
+  </si>
+  <si>
+    <t>G_8616</t>
+  </si>
+  <si>
+    <t>P_3203</t>
+  </si>
+  <si>
+    <t>технический участок №7 СПК "Читканское"</t>
+  </si>
+  <si>
+    <t>G_8102</t>
+  </si>
+  <si>
+    <t>G_U4835</t>
+  </si>
+  <si>
+    <t>технический участок № 2 ГУСП «Сосновоборский»</t>
+  </si>
+  <si>
+    <t>P_3204</t>
+  </si>
+  <si>
+    <t>G_U4777</t>
+  </si>
+  <si>
+    <t>технический участок № 2 СПК "Шибертуйский"</t>
+  </si>
+  <si>
+    <t>G_16511</t>
+  </si>
+  <si>
+    <t>технический участок № 3</t>
+  </si>
+  <si>
+    <t>G_16501</t>
+  </si>
+  <si>
+    <t>технический участок № 4 СПК "Поселье"</t>
+  </si>
+  <si>
+    <t>P_3205</t>
+  </si>
+  <si>
+    <t>технический участок № 5 ТНВ "Буйское"</t>
+  </si>
+  <si>
+    <t>G_16527</t>
+  </si>
+  <si>
+    <t>технический участок № 6 ТНВ "Хилокский"</t>
+  </si>
+  <si>
+    <t>G_8103</t>
+  </si>
+  <si>
+    <t>технический участок № 3 СПК им. Ленина</t>
+  </si>
+  <si>
+    <t>P_3264</t>
+  </si>
+  <si>
+    <t>G_U4854</t>
+  </si>
+  <si>
+    <t>технический участок № 10 СПК "Оротский»</t>
+  </si>
+  <si>
+    <t>P_3206</t>
+  </si>
+  <si>
+    <t>технический участок № 7 СПК "Аршан"</t>
+  </si>
+  <si>
+    <t>P_3208</t>
+  </si>
+  <si>
+    <t>технический участок № 9 СПК "Окино-Ключевский"</t>
+  </si>
+  <si>
+    <t>G_11564</t>
+  </si>
+  <si>
+    <t>G_U4809</t>
+  </si>
+  <si>
+    <t>НЕ ЛЕСНЫЕ</t>
+  </si>
+  <si>
+    <t>G_16498</t>
+  </si>
+  <si>
+    <t>технический	участок № 10 СПК "Сибирь"</t>
+  </si>
+  <si>
+    <t>P_3207</t>
+  </si>
+  <si>
+    <t>технический участок № 8 СПК "Харлун"</t>
+  </si>
+  <si>
+    <t>G_14947</t>
+  </si>
+  <si>
+    <t>технический участок № 4 СПК «Маяк»;</t>
+  </si>
+  <si>
+    <t>P_3209</t>
+  </si>
+  <si>
+    <t>технический участок № 11 СПК "Билютайский"</t>
+  </si>
+  <si>
+    <t>P_3210</t>
+  </si>
+  <si>
+    <t>технический участок № 12 СПК "Колос"</t>
+  </si>
+  <si>
+    <t>P_3211</t>
+  </si>
+  <si>
+    <t>технический участок № 13 ТНВ "Рассвет"</t>
+  </si>
+  <si>
+    <t>G_12697</t>
+  </si>
+  <si>
+    <t>технический участок № 1 СПК «Колос»</t>
+  </si>
+  <si>
+    <t>G_8104</t>
+  </si>
+  <si>
+    <t>технический участок № 5 СПК «Искра»</t>
+  </si>
+  <si>
+    <t>P_3212</t>
+  </si>
+  <si>
+    <t>технический участок № 14 СПК "Дружба"</t>
+  </si>
+  <si>
+    <t>P_3213</t>
+  </si>
+  <si>
+    <t>технический участок № 15 СПК "Заря"</t>
+  </si>
+  <si>
+    <t>G_16493</t>
+  </si>
+  <si>
+    <t>технический участок № 6 СПК «Россия»</t>
+  </si>
+  <si>
+    <t>G_14709</t>
+  </si>
+  <si>
+    <t>G_U4919</t>
+  </si>
+  <si>
+    <t>технический участок № 8 СПК «К. Маркса»</t>
+  </si>
+  <si>
+    <t>P_3214</t>
+  </si>
+  <si>
+    <t>технический участок № 16 СПК "Еланский"</t>
+  </si>
+  <si>
+    <t>P_3215</t>
+  </si>
+  <si>
+    <t>1технический участок № 17 СПК им. Калинина</t>
+  </si>
+  <si>
+    <t>P_3216</t>
+  </si>
+  <si>
+    <t>технический участок № 18 СПК "Победа"</t>
+  </si>
+  <si>
+    <t>G_16504</t>
+  </si>
+  <si>
+    <t>технический участок № 19 Подсобное хозяйство ПУ-30</t>
+  </si>
+  <si>
+    <t>G_16518</t>
+  </si>
+  <si>
+    <t>технический участок № 7 СПК «Авангард»</t>
+  </si>
+  <si>
+    <t>P_3217</t>
+  </si>
+  <si>
+    <t>G_U4813</t>
+  </si>
+  <si>
+    <t>технический участок № 1 СПК "Юбилейный"</t>
+  </si>
+  <si>
+    <t>P_3218</t>
+  </si>
+  <si>
+    <t>технический участок № 2 СПК "Победа"</t>
+  </si>
+  <si>
+    <t>G_16512</t>
+  </si>
+  <si>
+    <t>технический участок № 8 СПК «Октябрь»</t>
+  </si>
+  <si>
+    <t>G_15957</t>
+  </si>
+  <si>
+    <t>технический участок № 2 СПК "Улюнский"</t>
+  </si>
+  <si>
+    <t>G_16499</t>
+  </si>
+  <si>
+    <t>G_U4898</t>
+  </si>
+  <si>
+    <t>ТУ №10</t>
+  </si>
+  <si>
+    <t>G_16534</t>
+  </si>
+  <si>
+    <t>технический участок № 1 СПК "Новосретинское"</t>
+  </si>
+  <si>
+    <t>G_16523</t>
+  </si>
+  <si>
+    <t>ТУ № 5</t>
+  </si>
+  <si>
+    <t>P_3219</t>
+  </si>
+  <si>
+    <t>технический участок № 3 СПК "Эгитуйский"</t>
+  </si>
+  <si>
+    <t>G_15979</t>
+  </si>
+  <si>
+    <t>технический участок № 9 СПК «Рассвет»</t>
+  </si>
+  <si>
+    <t>G_16747</t>
+  </si>
+  <si>
+    <t>G_U4848</t>
+  </si>
+  <si>
+    <t>технический участок № 2 СПК «Заречье»</t>
+  </si>
+  <si>
+    <t>P_3222</t>
+  </si>
+  <si>
+    <t>технический участок № 6 СПК "Улан-Туя"</t>
+  </si>
+  <si>
+    <t>G_16500</t>
+  </si>
+  <si>
+    <t>технический участок № 10 СПК «Верхний Саянтуй»</t>
+  </si>
+  <si>
+    <t>P_3223</t>
+  </si>
+  <si>
+    <t>технический участок № 7 СПК "Ульдурга"</t>
+  </si>
+  <si>
+    <t>P_3224</t>
+  </si>
+  <si>
+    <t>технический участок № 9 СПК "Хоргинский"</t>
+  </si>
+  <si>
+    <t>P_3243</t>
+  </si>
+  <si>
+    <t>11)	технический участок № 11 СПК «Заря»</t>
+  </si>
+  <si>
+    <t>P_3265</t>
+  </si>
+  <si>
+    <t>технический участок № 11 СПК "Первомайский»</t>
+  </si>
+  <si>
+    <t>P_3225</t>
+  </si>
+  <si>
+    <t>технический участок № 8 СПК "Сосновский"</t>
+  </si>
+  <si>
+    <t>P_3226</t>
+  </si>
+  <si>
+    <t>технический участок № 10 СПК "Еравнинский"</t>
+  </si>
+  <si>
+    <t>P_3221</t>
+  </si>
+  <si>
+    <t>технический участок № 5 АККМ "Улхасаа"</t>
+  </si>
+  <si>
+    <t>P_3266</t>
+  </si>
+  <si>
+    <t>технический участок № 12 СПК "Куоркинский"</t>
+  </si>
+  <si>
+    <t>P_3220</t>
+  </si>
+  <si>
+    <t>технический участок № 4 СПК "Дружба"</t>
+  </si>
+  <si>
+    <t>P_3227</t>
+  </si>
+  <si>
+    <t>технический участок № 11 СПК "Целинный"</t>
+  </si>
+  <si>
+    <t>P_2372</t>
+  </si>
+  <si>
+    <t>технический участок № 6 Бортойское сельское поселение</t>
+  </si>
+  <si>
+    <t>P_3244</t>
+  </si>
+  <si>
+    <t>12)	технический участок № 12 ГОУ «Бурятский аграрный колледж им. Ербанова»</t>
+  </si>
+  <si>
+    <t>P_3267</t>
+  </si>
+  <si>
+    <t>G_U4877</t>
+  </si>
+  <si>
+    <t>технический участок № 1 СПК «Улюнханский»</t>
+  </si>
+  <si>
+    <t>P_2656</t>
+  </si>
+  <si>
+    <t>G_U4884</t>
+  </si>
+  <si>
+    <t>технический участок №11 СПК "Баян-Булаг"</t>
+  </si>
+  <si>
+    <t>P_2818</t>
+  </si>
+  <si>
+    <t>технический участок № 13 совхоз «Забайкалец»</t>
+  </si>
+  <si>
+    <t>P_3278</t>
+  </si>
+  <si>
+    <t>G_U4941</t>
+  </si>
+  <si>
+    <t>технический участок № 5 СПК «Хасуртайский»</t>
+  </si>
+  <si>
+    <t>P_3228</t>
+  </si>
+  <si>
+    <t>технический участок № 12 СПК "Витимский"</t>
+  </si>
+  <si>
+    <t>P_2373</t>
+  </si>
+  <si>
+    <t>технический участок № 7 Енгорбойское сельское поселение</t>
+  </si>
+  <si>
+    <t>P_3245</t>
+  </si>
+  <si>
+    <t>G_U4841</t>
+  </si>
+  <si>
+    <t>технический участок № 1 СПК «Пригородное»</t>
+  </si>
+  <si>
+    <t>P_3268</t>
+  </si>
+  <si>
+    <t>технический участок № 2 СПК «Дырен»</t>
+  </si>
+  <si>
+    <t>P_2657</t>
+  </si>
+  <si>
+    <t>технический участок №12 СПК "Уладыйский"</t>
+  </si>
+  <si>
+    <t>P_3279</t>
+  </si>
+  <si>
+    <t>технический участок № 6 СПК «Улан-Одон»</t>
+  </si>
+  <si>
+    <t>P_3229</t>
+  </si>
+  <si>
+    <t>технический участок № 13 СПК "Ширингинский"</t>
+  </si>
+  <si>
+    <t>P_2374</t>
+  </si>
+  <si>
+    <t>технический участок № 8 Нуртинское сельское поселение</t>
+  </si>
+  <si>
+    <t>P_3246</t>
+  </si>
+  <si>
+    <t>технический участок № 2 «Учхоз-Байкал»</t>
+  </si>
+  <si>
+    <t>P_3269</t>
+  </si>
+  <si>
+    <t>технический участок № 3 СПК «Гаргинский»</t>
+  </si>
+  <si>
+    <t>P_2658</t>
+  </si>
+  <si>
+    <t>технический участок №13 ПХ "Дунгуйское"</t>
+  </si>
+  <si>
+    <t>P_3280</t>
+  </si>
+  <si>
+    <t>7)	технический участок № 7 СПК «Алан»</t>
+  </si>
+  <si>
+    <t>P_3230</t>
+  </si>
+  <si>
+    <t>технический участок № 14 СПК "Комсомольский"</t>
+  </si>
+  <si>
+    <t>P_2375</t>
+  </si>
+  <si>
+    <t>технический участок № 9 СПК «Шара-Азарга»</t>
+  </si>
+  <si>
+    <t>P_3247</t>
+  </si>
+  <si>
+    <t>технический участок № 3 СПК «Красноярово»</t>
+  </si>
+  <si>
+    <t>P_3270</t>
+  </si>
+  <si>
+    <t>технический участок № 4 СПК «Курумканский»</t>
+  </si>
+  <si>
+    <t>P_2659</t>
+  </si>
+  <si>
+    <t>технический участок №14 СПК "им.Ранжурова"</t>
+  </si>
+  <si>
+    <t>P_3281</t>
+  </si>
+  <si>
+    <t>технический участок № 8 СПК «Рассвет»</t>
+  </si>
+  <si>
+    <t>P_3231</t>
+  </si>
+  <si>
+    <t>технический участок № 15 СПК "Тулдунский"</t>
+  </si>
+  <si>
+    <t>P_2376</t>
+  </si>
+  <si>
+    <t>технический участок № 10  ООО «Найдал»</t>
+  </si>
+  <si>
+    <t>P_3248</t>
+  </si>
+  <si>
+    <t>технический участок № 4 СПК «Ошор-Булаг»</t>
+  </si>
+  <si>
+    <t>P_3271</t>
+  </si>
+  <si>
+    <t>технический участок № 5 СПК «им. Ленина»</t>
+  </si>
+  <si>
+    <t>P_2660</t>
+  </si>
+  <si>
+    <t>технический участок №15 СПК "Алтайский"</t>
+  </si>
+  <si>
+    <t>P_3282</t>
+  </si>
+  <si>
+    <t>технический участок № 9 СПК «Верхне-Талецкий»</t>
+  </si>
+  <si>
+    <t>P_3232</t>
+  </si>
+  <si>
+    <t>технический участок № 16 СПК "Исингинский"</t>
+  </si>
+  <si>
+    <t>P_2377</t>
+  </si>
+  <si>
+    <t>технический участок № 11 Дутулурское сельское поселение</t>
+  </si>
+  <si>
+    <t>P_3249</t>
+  </si>
+  <si>
+    <t>технический участок № 5 СПК «Халюта»</t>
+  </si>
+  <si>
+    <t>P_3272</t>
+  </si>
+  <si>
+    <t>технический участок № 6 СПК «Хуторхой»</t>
+  </si>
+  <si>
+    <t>P_2521</t>
+  </si>
+  <si>
+    <t>технический участок № 1 СПК «Харгана»</t>
+  </si>
+  <si>
+    <t>P_3283</t>
+  </si>
+  <si>
+    <t>технический участок № 10 СПК «Удинский»</t>
+  </si>
+  <si>
+    <t>G_14982</t>
+  </si>
+  <si>
+    <t>G_U4820</t>
+  </si>
+  <si>
+    <t>технический участок № 3 СПК «Мухор-Талинский»</t>
+  </si>
+  <si>
+    <t>P_2378</t>
+  </si>
+  <si>
+    <t>технический участок № 12 Улентуйское сельское поселение</t>
+  </si>
+  <si>
+    <t>P_3250</t>
+  </si>
+  <si>
+    <t>технический участок № 6 ОПХ «Иволгинское»</t>
+  </si>
+  <si>
+    <t>P_3273</t>
+  </si>
+  <si>
+    <t>технический участок № 7 СПК «Сахулинский»</t>
+  </si>
+  <si>
+    <t>P_2522</t>
+  </si>
+  <si>
+    <t>технический участок № 2 СПК «Жаргаланта»</t>
+  </si>
+  <si>
+    <t>P_3233</t>
+  </si>
+  <si>
+    <t>технический участок № 1 СПК «Унэгэтейское»</t>
+  </si>
+  <si>
+    <t>P_2379</t>
+  </si>
+  <si>
+    <t>технический участок № 13 Хужирское сельское поселение</t>
+  </si>
+  <si>
+    <t>P_3251</t>
+  </si>
+  <si>
+    <t>технический участок № 8 СПК «Колобковское»</t>
+  </si>
+  <si>
+    <t>P_2646</t>
+  </si>
+  <si>
+    <t>технический участок №1 СПК "Заречный"</t>
+  </si>
+  <si>
+    <t>P_2523</t>
+  </si>
+  <si>
+    <t>технический участок № 3 СПК «им. Ленина»</t>
+  </si>
+  <si>
+    <t>P_3234</t>
+  </si>
+  <si>
+    <t>технический участок № 2 СПК « Гигант»</t>
+  </si>
+  <si>
+    <t>P_2380</t>
+  </si>
+  <si>
+    <t>технический участок № 14 СПК «Хамней»</t>
+  </si>
+  <si>
+    <t>P_3252</t>
+  </si>
+  <si>
+    <t>технический участок № 7 СПК «Гильбира»</t>
+  </si>
+  <si>
+    <t>P_2817</t>
+  </si>
+  <si>
+    <t>технический участок № 12 колхоз «Искра»</t>
+  </si>
+  <si>
+    <t>P_2524</t>
+  </si>
+  <si>
+    <t>технический участок № 4 СПК «Бестужевский»</t>
+  </si>
+  <si>
+    <t>P_3235</t>
+  </si>
+  <si>
+    <t>технический участок № 4 СПК «Ташеланский»</t>
+  </si>
+  <si>
+    <t>P_2381</t>
+  </si>
+  <si>
+    <t>технический участок № 15 СПК «Бургуй»</t>
+  </si>
+  <si>
+    <t>P_3253</t>
+  </si>
+  <si>
+    <t>технический участок № 9 СПК «8 Марта»</t>
+  </si>
+  <si>
+    <t>G_16026</t>
+  </si>
+  <si>
+    <t>G_U4906</t>
+  </si>
+  <si>
+    <t>технический участок № 1 СПК "Прибайкалец"</t>
+  </si>
+  <si>
+    <t>P_2525</t>
+  </si>
+  <si>
+    <t>технический участок № 5 СПК «имени XX Партсъезда»</t>
+  </si>
+  <si>
+    <t>P_3236</t>
+  </si>
+  <si>
+    <t>технический участок № 5 колхоз «им. Карла Маркса»</t>
+  </si>
+  <si>
+    <t>P_2382</t>
+  </si>
+  <si>
+    <t>технический участок № 16 СПК «Хуртага»</t>
+  </si>
+  <si>
+    <t>P_3254</t>
+  </si>
+  <si>
+    <t>технический участок № 10 СПК «Оронго»</t>
+  </si>
+  <si>
+    <t>P_2806</t>
+  </si>
+  <si>
+    <t>технический участок № 1 колхоз «им. Ленина»</t>
+  </si>
+  <si>
+    <t>G_15125</t>
+  </si>
+  <si>
+    <t>технический участок № 2 СПК "Зырянский"</t>
+  </si>
+  <si>
+    <t>P_2526</t>
+  </si>
+  <si>
+    <t>технический участок № 6 СПК «Эрдэм»</t>
+  </si>
+  <si>
+    <t>P_3237</t>
+  </si>
+  <si>
+    <t>технический участок № 6 СПК «Эрхирикский»</t>
+  </si>
+  <si>
+    <t>P_2383</t>
+  </si>
+  <si>
+    <t>технический участок № 17 СПК «Михайловка»</t>
+  </si>
+  <si>
+    <t>G_15956</t>
+  </si>
+  <si>
+    <t>технический участок № 1 СПК Рыболовецкая артель «Кабанский рыбозавод»</t>
+  </si>
+  <si>
+    <t>P_2807</t>
+  </si>
+  <si>
+    <t>технический участок № 2 совхоз «Эрдэм»</t>
+  </si>
+  <si>
+    <t>G_14999</t>
+  </si>
+  <si>
+    <t>технический участок № 3 СПК "Нестеровский"</t>
+  </si>
+  <si>
+    <t>P_2527</t>
+  </si>
+  <si>
+    <t>технический участок № 7 СПК «Селенгинский»</t>
+  </si>
+  <si>
+    <t>P_3238</t>
+  </si>
+  <si>
+    <t>технический участок 7 совхоз «Ацагатский»</t>
+  </si>
+  <si>
+    <t>P_2385</t>
+  </si>
+  <si>
+    <t>технический участок № 18 Харацайское сельское поселение</t>
+  </si>
+  <si>
+    <t>P_3255</t>
+  </si>
+  <si>
+    <t>технический участок № 1 СПК «Загустайский»</t>
+  </si>
+  <si>
+    <t>P_2808</t>
+  </si>
+  <si>
+    <t>технический участок № 3 колхоз «Коммунизм»</t>
+  </si>
+  <si>
+    <t>G_16030</t>
+  </si>
+  <si>
+    <t>технический участок № 4 СПК "Ильинка"</t>
+  </si>
+  <si>
+    <t>P_2600</t>
+  </si>
+  <si>
+    <t>Дача 1</t>
+  </si>
+  <si>
+    <t>P_3239</t>
+  </si>
+  <si>
+    <t>технический участок № 8 АКХ «Дружба»</t>
+  </si>
+  <si>
+    <t>P_2601</t>
+  </si>
+  <si>
+    <t>Дача 2</t>
+  </si>
+  <si>
+    <t>P_3240</t>
+  </si>
+  <si>
+    <t>технический участок № 9 СПК «Талецкий»</t>
+  </si>
+  <si>
+    <t>P_3256</t>
+  </si>
+  <si>
+    <t>технический участок № 2 СПК «Чесанский»</t>
+  </si>
+  <si>
+    <t>P_2647</t>
+  </si>
+  <si>
+    <t>технический участок №2 СПК "Большелугский"</t>
+  </si>
+  <si>
+    <t>P_2809</t>
+  </si>
+  <si>
+    <t>технический участок № 4 совхоз «Авангард»</t>
+  </si>
+  <si>
+    <t>G_16029</t>
+  </si>
+  <si>
+    <t>технический участок № 5 СПК "Троицкая Нива"</t>
+  </si>
+  <si>
+    <t>P_3241</t>
+  </si>
+  <si>
+    <t>технический участок № 10 СПК «Курбинский»</t>
+  </si>
+  <si>
+    <t>P_2337</t>
+  </si>
+  <si>
+    <t>технический участок № 2 Утатуйское сельское поселение</t>
+  </si>
+  <si>
+    <t>P_4414</t>
+  </si>
+  <si>
+    <t>G_U4904</t>
+  </si>
+  <si>
+    <t>"а"</t>
+  </si>
+  <si>
+    <t>P_3257</t>
+  </si>
+  <si>
+    <t>технический участок № 3 СПК «Михайловский»</t>
+  </si>
+  <si>
+    <t>P_2648</t>
+  </si>
+  <si>
+    <t>технический участок №3 СПК "Пригородный"</t>
+  </si>
+  <si>
+    <t>P_2810</t>
+  </si>
+  <si>
+    <t>технический участок № 5 колхоз «Родина»</t>
+  </si>
+  <si>
+    <t>G_14624</t>
+  </si>
+  <si>
+    <t>технический участок № 6 СПК "Юговский"</t>
+  </si>
+  <si>
+    <t>P_3242</t>
+  </si>
+  <si>
+    <t>11)	технический участок № 11 Бройлерная птицефабрика</t>
+  </si>
+  <si>
+    <t>P_3258</t>
+  </si>
+  <si>
+    <t>технический участок № 4 СПК «Могсохонский»</t>
+  </si>
+  <si>
+    <t>P_2649</t>
+  </si>
+  <si>
+    <t>технический участок №4 СПК "Пограничный"</t>
+  </si>
+  <si>
+    <t>P_2811</t>
+  </si>
+  <si>
+    <t>технический участок № 6 колхоз «Знамя Ленина»</t>
+  </si>
+  <si>
+    <t>G_16027</t>
+  </si>
+  <si>
+    <t>технический участок № 7 Совхоз "Прибайкальский"</t>
+  </si>
+  <si>
+    <t>P_2336</t>
+  </si>
+  <si>
+    <t>Технический участок № 1 СПК «Дабата»</t>
+  </si>
+  <si>
+    <t>P_3259</t>
+  </si>
+  <si>
+    <t>технический участок № 5 СПК «Кодунский»</t>
+  </si>
+  <si>
+    <t>P_2650</t>
+  </si>
+  <si>
+    <t>технический участок №5 СПК "Кяхтинский"</t>
+  </si>
+  <si>
+    <t>P_2812</t>
+  </si>
+  <si>
+    <t>технический участок № 7 совхоз «Цолгинский»</t>
+  </si>
+  <si>
+    <t>P_2528</t>
+  </si>
+  <si>
+    <t>технический участок № 9 СПК «Облепиховый»</t>
+  </si>
+  <si>
+    <t>P_4415</t>
+  </si>
+  <si>
+    <t>G_U4903</t>
+  </si>
+  <si>
+    <t>P_2369</t>
+  </si>
+  <si>
+    <t>технический участок № 3 Санагинское сельское поселение</t>
+  </si>
+  <si>
+    <t>P_3260</t>
+  </si>
+  <si>
+    <t>технический участок № 6 СПК «Кижингинский»</t>
+  </si>
+  <si>
+    <t>P_2651</t>
+  </si>
+  <si>
+    <t>технический участок №6 СПК "Мурочинский"</t>
+  </si>
+  <si>
+    <t>P_2813</t>
+  </si>
+  <si>
+    <t>технический участок № 8 совхоз «Сутайский»</t>
+  </si>
+  <si>
+    <t>P_3274</t>
+  </si>
+  <si>
+    <t>технический участок № 1 СХПК «Хоринский»</t>
+  </si>
+  <si>
+    <t>P_2370</t>
+  </si>
+  <si>
+    <t>технический участок № 4 СПК «Мыла»</t>
+  </si>
+  <si>
+    <t>P_3261</t>
+  </si>
+  <si>
+    <t>технический участок № 7 СПК «Баянгольский»</t>
+  </si>
+  <si>
+    <t>P_2652</t>
+  </si>
+  <si>
+    <t>технический участок №7 СПК "Заря"</t>
+  </si>
+  <si>
+    <t>P_2814</t>
+  </si>
+  <si>
+    <t>технический участок № 9 колхоз «Заганский»</t>
+  </si>
+  <si>
+    <t>P_3275</t>
+  </si>
+  <si>
+    <t>технический участок № 2 СПК «Георгиевский»</t>
+  </si>
+  <si>
+    <t>P_2371</t>
+  </si>
+  <si>
+    <t>технический участок № 5 Цаган-Моринское сельское поселение</t>
+  </si>
+  <si>
+    <t>P_3262</t>
+  </si>
+  <si>
+    <t>технический участок № 8 СПК «Ушхайтинский»</t>
+  </si>
+  <si>
+    <t>P_2653</t>
+  </si>
+  <si>
+    <t>технический участок №8 Колхоз "Дружба"</t>
+  </si>
+  <si>
+    <t>P_2815</t>
+  </si>
+  <si>
+    <t>технический участок № 10 колхоз «Путь Ленина»</t>
+  </si>
+  <si>
+    <t>P_3276</t>
+  </si>
+  <si>
+    <t>технический участок № 3 колхоз «Булумский»</t>
+  </si>
+  <si>
+    <t>P_2384</t>
+  </si>
+  <si>
+    <t>технический участок № 18  Нижнее-Бургалтайское сельское поселение</t>
+  </si>
+  <si>
+    <t>P_3263</t>
+  </si>
+  <si>
+    <t>технический участок № 9 СПК «50 лет Октября»</t>
+  </si>
+  <si>
+    <t>P_2654</t>
+  </si>
+  <si>
+    <t>технический участок №9 Колхоз "Родина"</t>
+  </si>
+  <si>
+    <t>P_2816</t>
+  </si>
+  <si>
+    <t>технический участок № 11 совхоз «Одон»</t>
+  </si>
+  <si>
+    <t>P_3277</t>
+  </si>
+  <si>
+    <t>технический участок № 4 СПК «Курбинский»</t>
+  </si>
+  <si>
+    <t>P_2317</t>
+  </si>
+  <si>
+    <t>G_U4806</t>
+  </si>
+  <si>
+    <t>ТУ №1 СПК "Армак"</t>
+  </si>
+  <si>
+    <t>P_2318</t>
+  </si>
+  <si>
+    <t>ТУ №2 СПК "Оерский"</t>
+  </si>
+  <si>
+    <t>P_2319</t>
+  </si>
+  <si>
+    <t>ТУ №3 СПК "Верхний Торей"</t>
+  </si>
+  <si>
+    <t>P_2320</t>
+  </si>
+  <si>
+    <t>ТУ №4 СПК "Торейское коневодческое хозяйство"</t>
+  </si>
+  <si>
+    <t>P_2321</t>
+  </si>
+  <si>
+    <t>ТУ №5 СПК "Доржи Банзарова"</t>
+  </si>
+  <si>
+    <t>P_2322</t>
+  </si>
+  <si>
+    <t>ТУ №6 СПК "Цагатуй"</t>
+  </si>
+  <si>
+    <t>P_2323</t>
+  </si>
+  <si>
+    <t>ТУ №7 СПК "Коммунизм"</t>
+  </si>
+  <si>
+    <t>P_2324</t>
+  </si>
+  <si>
+    <t>ТУ №8 СПК "60 лет Октября"</t>
+  </si>
+  <si>
+    <t>P_2325</t>
+  </si>
+  <si>
+    <t>ТУ №9 СПК "Мир"</t>
+  </si>
+  <si>
+    <t>P_2326</t>
+  </si>
+  <si>
+    <t>ТУ №10 СПК "Верхний Бургалтай"</t>
+  </si>
+  <si>
+    <t>P_2327</t>
+  </si>
+  <si>
+    <t>ТУ №11 СПК "Желтура"</t>
+  </si>
+  <si>
+    <t>P_2328</t>
+  </si>
+  <si>
+    <t>ТУ №12 СПК "Гэгэтуй"</t>
+  </si>
+  <si>
+    <t>P_2329</t>
+  </si>
+  <si>
+    <t>ТУ №13 СПК "Баян"</t>
+  </si>
+  <si>
+    <t>P_2330</t>
+  </si>
+  <si>
+    <t>ТУ №14 СПК "Ичетуй"</t>
+  </si>
+  <si>
+    <t>P_2331</t>
+  </si>
+  <si>
+    <t>ТУ №15 СПК "Джидинский"</t>
+  </si>
+  <si>
+    <t>P_2332</t>
+  </si>
+  <si>
+    <t>ТУ №16 СПК "Дырестуй"</t>
+  </si>
+  <si>
+    <t>P_2333</t>
+  </si>
+  <si>
+    <t>ТУ №17 СПК "Боргойский"</t>
+  </si>
+  <si>
+    <t>P_2334</t>
+  </si>
+  <si>
+    <t>ТУ №18 СПК "Георгиевский"</t>
+  </si>
+  <si>
+    <t>P_4416</t>
+  </si>
+  <si>
+    <t>G_U4902</t>
+  </si>
+  <si>
+    <t>P_2655</t>
+  </si>
+  <si>
+    <t>технический участок №10 СПК "Кударинский"</t>
+  </si>
+  <si>
+    <t>P_4517</t>
+  </si>
+  <si>
+    <t>Восточная часть</t>
   </si>
 </sst>
 </file>
@@ -1629,10 +2886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D209"/>
+  <dimension ref="A1:D409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="D203" sqref="D203"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D403" sqref="D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4567,6 +5824,2806 @@
       </c>
       <c r="D209" t="s">
         <v>417</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>425</v>
+      </c>
+      <c r="B210">
+        <v>3</v>
+      </c>
+      <c r="C210" t="s">
+        <v>426</v>
+      </c>
+      <c r="D210" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>428</v>
+      </c>
+      <c r="B211">
+        <v>3</v>
+      </c>
+      <c r="C211" t="s">
+        <v>429</v>
+      </c>
+      <c r="D211" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>431</v>
+      </c>
+      <c r="B212">
+        <v>3</v>
+      </c>
+      <c r="C212" t="s">
+        <v>426</v>
+      </c>
+      <c r="D212" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>433</v>
+      </c>
+      <c r="B213">
+        <v>3</v>
+      </c>
+      <c r="C213" t="s">
+        <v>429</v>
+      </c>
+      <c r="D213" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>435</v>
+      </c>
+      <c r="B214">
+        <v>3</v>
+      </c>
+      <c r="C214" t="s">
+        <v>426</v>
+      </c>
+      <c r="D214" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>437</v>
+      </c>
+      <c r="B215">
+        <v>3</v>
+      </c>
+      <c r="C215" t="s">
+        <v>438</v>
+      </c>
+      <c r="D215" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>440</v>
+      </c>
+      <c r="B216">
+        <v>3</v>
+      </c>
+      <c r="C216" t="s">
+        <v>426</v>
+      </c>
+      <c r="D216" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>442</v>
+      </c>
+      <c r="B217">
+        <v>3</v>
+      </c>
+      <c r="C217" t="s">
+        <v>443</v>
+      </c>
+      <c r="D217" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>445</v>
+      </c>
+      <c r="B218">
+        <v>3</v>
+      </c>
+      <c r="C218" t="s">
+        <v>429</v>
+      </c>
+      <c r="D218" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>446</v>
+      </c>
+      <c r="B219">
+        <v>3</v>
+      </c>
+      <c r="C219" t="s">
+        <v>426</v>
+      </c>
+      <c r="D219" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>448</v>
+      </c>
+      <c r="B220">
+        <v>3</v>
+      </c>
+      <c r="C220" t="s">
+        <v>449</v>
+      </c>
+      <c r="D220" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>451</v>
+      </c>
+      <c r="B221">
+        <v>3</v>
+      </c>
+      <c r="C221" t="s">
+        <v>452</v>
+      </c>
+      <c r="D221" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>454</v>
+      </c>
+      <c r="B222">
+        <v>3</v>
+      </c>
+      <c r="C222" t="s">
+        <v>452</v>
+      </c>
+      <c r="D222" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>456</v>
+      </c>
+      <c r="B223">
+        <v>3</v>
+      </c>
+      <c r="C223" t="s">
+        <v>452</v>
+      </c>
+      <c r="D223" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>458</v>
+      </c>
+      <c r="B224">
+        <v>3</v>
+      </c>
+      <c r="C224" t="s">
+        <v>452</v>
+      </c>
+      <c r="D224" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>460</v>
+      </c>
+      <c r="B225">
+        <v>3</v>
+      </c>
+      <c r="C225" t="s">
+        <v>452</v>
+      </c>
+      <c r="D225" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>462</v>
+      </c>
+      <c r="B226">
+        <v>3</v>
+      </c>
+      <c r="C226" t="s">
+        <v>449</v>
+      </c>
+      <c r="D226" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>464</v>
+      </c>
+      <c r="B227">
+        <v>3</v>
+      </c>
+      <c r="C227" t="s">
+        <v>465</v>
+      </c>
+      <c r="D227" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>467</v>
+      </c>
+      <c r="B228">
+        <v>3</v>
+      </c>
+      <c r="C228" t="s">
+        <v>452</v>
+      </c>
+      <c r="D228" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>469</v>
+      </c>
+      <c r="B229">
+        <v>3</v>
+      </c>
+      <c r="C229" t="s">
+        <v>452</v>
+      </c>
+      <c r="D229" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>471</v>
+      </c>
+      <c r="B230">
+        <v>3</v>
+      </c>
+      <c r="C230" t="s">
+        <v>472</v>
+      </c>
+      <c r="D230" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>474</v>
+      </c>
+      <c r="B231">
+        <v>3</v>
+      </c>
+      <c r="C231" t="s">
+        <v>452</v>
+      </c>
+      <c r="D231" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>476</v>
+      </c>
+      <c r="B232">
+        <v>3</v>
+      </c>
+      <c r="C232" t="s">
+        <v>452</v>
+      </c>
+      <c r="D232" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>478</v>
+      </c>
+      <c r="B233">
+        <v>3</v>
+      </c>
+      <c r="C233" t="s">
+        <v>449</v>
+      </c>
+      <c r="D233" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>480</v>
+      </c>
+      <c r="B234">
+        <v>3</v>
+      </c>
+      <c r="C234" t="s">
+        <v>452</v>
+      </c>
+      <c r="D234" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>482</v>
+      </c>
+      <c r="B235">
+        <v>3</v>
+      </c>
+      <c r="C235" t="s">
+        <v>452</v>
+      </c>
+      <c r="D235" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>484</v>
+      </c>
+      <c r="B236">
+        <v>3</v>
+      </c>
+      <c r="C236" t="s">
+        <v>452</v>
+      </c>
+      <c r="D236" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>486</v>
+      </c>
+      <c r="B237">
+        <v>3</v>
+      </c>
+      <c r="C237" t="s">
+        <v>449</v>
+      </c>
+      <c r="D237" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>488</v>
+      </c>
+      <c r="B238">
+        <v>3</v>
+      </c>
+      <c r="C238" t="s">
+        <v>449</v>
+      </c>
+      <c r="D238" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>490</v>
+      </c>
+      <c r="B239">
+        <v>3</v>
+      </c>
+      <c r="C239" t="s">
+        <v>452</v>
+      </c>
+      <c r="D239" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>492</v>
+      </c>
+      <c r="B240">
+        <v>3</v>
+      </c>
+      <c r="C240" t="s">
+        <v>452</v>
+      </c>
+      <c r="D240" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>494</v>
+      </c>
+      <c r="B241">
+        <v>3</v>
+      </c>
+      <c r="C241" t="s">
+        <v>449</v>
+      </c>
+      <c r="D241" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>496</v>
+      </c>
+      <c r="B242">
+        <v>3</v>
+      </c>
+      <c r="C242" t="s">
+        <v>497</v>
+      </c>
+      <c r="D242" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>499</v>
+      </c>
+      <c r="B243">
+        <v>3</v>
+      </c>
+      <c r="C243" t="s">
+        <v>452</v>
+      </c>
+      <c r="D243" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>501</v>
+      </c>
+      <c r="B244">
+        <v>3</v>
+      </c>
+      <c r="C244" t="s">
+        <v>452</v>
+      </c>
+      <c r="D244" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>503</v>
+      </c>
+      <c r="B245">
+        <v>3</v>
+      </c>
+      <c r="C245" t="s">
+        <v>452</v>
+      </c>
+      <c r="D245" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>505</v>
+      </c>
+      <c r="B246">
+        <v>3</v>
+      </c>
+      <c r="C246" t="s">
+        <v>452</v>
+      </c>
+      <c r="D246" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>507</v>
+      </c>
+      <c r="B247">
+        <v>3</v>
+      </c>
+      <c r="C247" t="s">
+        <v>449</v>
+      </c>
+      <c r="D247" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>509</v>
+      </c>
+      <c r="B248">
+        <v>3</v>
+      </c>
+      <c r="C248" t="s">
+        <v>510</v>
+      </c>
+      <c r="D248" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>512</v>
+      </c>
+      <c r="B249">
+        <v>3</v>
+      </c>
+      <c r="C249" t="s">
+        <v>510</v>
+      </c>
+      <c r="D249" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>514</v>
+      </c>
+      <c r="B250">
+        <v>3</v>
+      </c>
+      <c r="C250" t="s">
+        <v>449</v>
+      </c>
+      <c r="D250" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>516</v>
+      </c>
+      <c r="B251">
+        <v>3</v>
+      </c>
+      <c r="C251" t="s">
+        <v>426</v>
+      </c>
+      <c r="D251" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>518</v>
+      </c>
+      <c r="B252">
+        <v>3</v>
+      </c>
+      <c r="C252" t="s">
+        <v>519</v>
+      </c>
+      <c r="D252" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>521</v>
+      </c>
+      <c r="B253">
+        <v>3</v>
+      </c>
+      <c r="C253" t="s">
+        <v>452</v>
+      </c>
+      <c r="D253" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>523</v>
+      </c>
+      <c r="B254">
+        <v>3</v>
+      </c>
+      <c r="C254" t="s">
+        <v>519</v>
+      </c>
+      <c r="D254" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>525</v>
+      </c>
+      <c r="B255">
+        <v>3</v>
+      </c>
+      <c r="C255" t="s">
+        <v>510</v>
+      </c>
+      <c r="D255" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>527</v>
+      </c>
+      <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256" t="s">
+        <v>449</v>
+      </c>
+      <c r="D256" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>529</v>
+      </c>
+      <c r="B257">
+        <v>3</v>
+      </c>
+      <c r="C257" t="s">
+        <v>530</v>
+      </c>
+      <c r="D257" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>532</v>
+      </c>
+      <c r="B258">
+        <v>3</v>
+      </c>
+      <c r="C258" t="s">
+        <v>510</v>
+      </c>
+      <c r="D258" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>534</v>
+      </c>
+      <c r="B259">
+        <v>3</v>
+      </c>
+      <c r="C259" t="s">
+        <v>449</v>
+      </c>
+      <c r="D259" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>536</v>
+      </c>
+      <c r="B260">
+        <v>3</v>
+      </c>
+      <c r="C260" t="s">
+        <v>510</v>
+      </c>
+      <c r="D260" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>538</v>
+      </c>
+      <c r="B261">
+        <v>3</v>
+      </c>
+      <c r="C261" t="s">
+        <v>510</v>
+      </c>
+      <c r="D261" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>540</v>
+      </c>
+      <c r="B262">
+        <v>3</v>
+      </c>
+      <c r="C262" t="s">
+        <v>449</v>
+      </c>
+      <c r="D262" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>542</v>
+      </c>
+      <c r="B263">
+        <v>3</v>
+      </c>
+      <c r="C263" t="s">
+        <v>465</v>
+      </c>
+      <c r="D263" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>544</v>
+      </c>
+      <c r="B264">
+        <v>3</v>
+      </c>
+      <c r="C264" t="s">
+        <v>510</v>
+      </c>
+      <c r="D264" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>546</v>
+      </c>
+      <c r="B265">
+        <v>3</v>
+      </c>
+      <c r="C265" t="s">
+        <v>510</v>
+      </c>
+      <c r="D265" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>548</v>
+      </c>
+      <c r="B266">
+        <v>3</v>
+      </c>
+      <c r="C266" t="s">
+        <v>510</v>
+      </c>
+      <c r="D266" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>550</v>
+      </c>
+      <c r="B267">
+        <v>3</v>
+      </c>
+      <c r="C267" t="s">
+        <v>465</v>
+      </c>
+      <c r="D267" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>552</v>
+      </c>
+      <c r="B268">
+        <v>3</v>
+      </c>
+      <c r="C268" t="s">
+        <v>510</v>
+      </c>
+      <c r="D268" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>554</v>
+      </c>
+      <c r="B269">
+        <v>3</v>
+      </c>
+      <c r="C269" t="s">
+        <v>510</v>
+      </c>
+      <c r="D269" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>556</v>
+      </c>
+      <c r="B270">
+        <v>3</v>
+      </c>
+      <c r="C270" t="s">
+        <v>438</v>
+      </c>
+      <c r="D270" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>558</v>
+      </c>
+      <c r="B271">
+        <v>3</v>
+      </c>
+      <c r="C271" t="s">
+        <v>449</v>
+      </c>
+      <c r="D271" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>560</v>
+      </c>
+      <c r="B272">
+        <v>3</v>
+      </c>
+      <c r="C272" t="s">
+        <v>561</v>
+      </c>
+      <c r="D272" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>563</v>
+      </c>
+      <c r="B273">
+        <v>3</v>
+      </c>
+      <c r="C273" t="s">
+        <v>564</v>
+      </c>
+      <c r="D273" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>566</v>
+      </c>
+      <c r="B274">
+        <v>3</v>
+      </c>
+      <c r="C274" t="s">
+        <v>519</v>
+      </c>
+      <c r="D274" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>568</v>
+      </c>
+      <c r="B275">
+        <v>3</v>
+      </c>
+      <c r="C275" t="s">
+        <v>569</v>
+      </c>
+      <c r="D275" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>571</v>
+      </c>
+      <c r="B276">
+        <v>3</v>
+      </c>
+      <c r="C276" t="s">
+        <v>510</v>
+      </c>
+      <c r="D276" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>573</v>
+      </c>
+      <c r="B277">
+        <v>3</v>
+      </c>
+      <c r="C277" t="s">
+        <v>438</v>
+      </c>
+      <c r="D277" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>575</v>
+      </c>
+      <c r="B278">
+        <v>3</v>
+      </c>
+      <c r="C278" t="s">
+        <v>576</v>
+      </c>
+      <c r="D278" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>578</v>
+      </c>
+      <c r="B279">
+        <v>3</v>
+      </c>
+      <c r="C279" t="s">
+        <v>561</v>
+      </c>
+      <c r="D279" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>580</v>
+      </c>
+      <c r="B280">
+        <v>3</v>
+      </c>
+      <c r="C280" t="s">
+        <v>564</v>
+      </c>
+      <c r="D280" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>582</v>
+      </c>
+      <c r="B281">
+        <v>3</v>
+      </c>
+      <c r="C281" t="s">
+        <v>569</v>
+      </c>
+      <c r="D281" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>584</v>
+      </c>
+      <c r="B282">
+        <v>3</v>
+      </c>
+      <c r="C282" t="s">
+        <v>510</v>
+      </c>
+      <c r="D282" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>586</v>
+      </c>
+      <c r="B283">
+        <v>3</v>
+      </c>
+      <c r="C283" t="s">
+        <v>438</v>
+      </c>
+      <c r="D283" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>588</v>
+      </c>
+      <c r="B284">
+        <v>3</v>
+      </c>
+      <c r="C284" t="s">
+        <v>576</v>
+      </c>
+      <c r="D284" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>590</v>
+      </c>
+      <c r="B285">
+        <v>3</v>
+      </c>
+      <c r="C285" t="s">
+        <v>561</v>
+      </c>
+      <c r="D285" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>592</v>
+      </c>
+      <c r="B286">
+        <v>3</v>
+      </c>
+      <c r="C286" t="s">
+        <v>564</v>
+      </c>
+      <c r="D286" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>594</v>
+      </c>
+      <c r="B287">
+        <v>3</v>
+      </c>
+      <c r="C287" t="s">
+        <v>569</v>
+      </c>
+      <c r="D287" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>596</v>
+      </c>
+      <c r="B288">
+        <v>3</v>
+      </c>
+      <c r="C288" t="s">
+        <v>510</v>
+      </c>
+      <c r="D288" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>598</v>
+      </c>
+      <c r="B289">
+        <v>3</v>
+      </c>
+      <c r="C289" t="s">
+        <v>438</v>
+      </c>
+      <c r="D289" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>600</v>
+      </c>
+      <c r="B290">
+        <v>3</v>
+      </c>
+      <c r="C290" t="s">
+        <v>576</v>
+      </c>
+      <c r="D290" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>602</v>
+      </c>
+      <c r="B291">
+        <v>3</v>
+      </c>
+      <c r="C291" t="s">
+        <v>561</v>
+      </c>
+      <c r="D291" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>604</v>
+      </c>
+      <c r="B292">
+        <v>3</v>
+      </c>
+      <c r="C292" t="s">
+        <v>564</v>
+      </c>
+      <c r="D292" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>606</v>
+      </c>
+      <c r="B293">
+        <v>3</v>
+      </c>
+      <c r="C293" t="s">
+        <v>569</v>
+      </c>
+      <c r="D293" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>608</v>
+      </c>
+      <c r="B294">
+        <v>3</v>
+      </c>
+      <c r="C294" t="s">
+        <v>510</v>
+      </c>
+      <c r="D294" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>610</v>
+      </c>
+      <c r="B295">
+        <v>3</v>
+      </c>
+      <c r="C295" t="s">
+        <v>438</v>
+      </c>
+      <c r="D295" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>612</v>
+      </c>
+      <c r="B296">
+        <v>3</v>
+      </c>
+      <c r="C296" t="s">
+        <v>576</v>
+      </c>
+      <c r="D296" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>614</v>
+      </c>
+      <c r="B297">
+        <v>3</v>
+      </c>
+      <c r="C297" t="s">
+        <v>561</v>
+      </c>
+      <c r="D297" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>616</v>
+      </c>
+      <c r="B298">
+        <v>3</v>
+      </c>
+      <c r="C298" t="s">
+        <v>564</v>
+      </c>
+      <c r="D298" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>618</v>
+      </c>
+      <c r="B299">
+        <v>3</v>
+      </c>
+      <c r="C299" t="s">
+        <v>569</v>
+      </c>
+      <c r="D299" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>620</v>
+      </c>
+      <c r="B300">
+        <v>3</v>
+      </c>
+      <c r="C300" t="s">
+        <v>510</v>
+      </c>
+      <c r="D300" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>622</v>
+      </c>
+      <c r="B301">
+        <v>3</v>
+      </c>
+      <c r="C301" t="s">
+        <v>438</v>
+      </c>
+      <c r="D301" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>624</v>
+      </c>
+      <c r="B302">
+        <v>3</v>
+      </c>
+      <c r="C302" t="s">
+        <v>576</v>
+      </c>
+      <c r="D302" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>626</v>
+      </c>
+      <c r="B303">
+        <v>3</v>
+      </c>
+      <c r="C303" t="s">
+        <v>561</v>
+      </c>
+      <c r="D303" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>628</v>
+      </c>
+      <c r="B304">
+        <v>3</v>
+      </c>
+      <c r="C304" t="s">
+        <v>497</v>
+      </c>
+      <c r="D304" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>630</v>
+      </c>
+      <c r="B305">
+        <v>3</v>
+      </c>
+      <c r="C305" t="s">
+        <v>569</v>
+      </c>
+      <c r="D305" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>632</v>
+      </c>
+      <c r="B306">
+        <v>3</v>
+      </c>
+      <c r="C306" t="s">
+        <v>633</v>
+      </c>
+      <c r="D306" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>635</v>
+      </c>
+      <c r="B307">
+        <v>3</v>
+      </c>
+      <c r="C307" t="s">
+        <v>438</v>
+      </c>
+      <c r="D307" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>637</v>
+      </c>
+      <c r="B308">
+        <v>3</v>
+      </c>
+      <c r="C308" t="s">
+        <v>576</v>
+      </c>
+      <c r="D308" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>639</v>
+      </c>
+      <c r="B309">
+        <v>3</v>
+      </c>
+      <c r="C309" t="s">
+        <v>561</v>
+      </c>
+      <c r="D309" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>641</v>
+      </c>
+      <c r="B310">
+        <v>3</v>
+      </c>
+      <c r="C310" t="s">
+        <v>497</v>
+      </c>
+      <c r="D310" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>643</v>
+      </c>
+      <c r="B311">
+        <v>3</v>
+      </c>
+      <c r="C311" t="s">
+        <v>633</v>
+      </c>
+      <c r="D311" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>645</v>
+      </c>
+      <c r="B312">
+        <v>3</v>
+      </c>
+      <c r="C312" t="s">
+        <v>438</v>
+      </c>
+      <c r="D312" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>647</v>
+      </c>
+      <c r="B313">
+        <v>3</v>
+      </c>
+      <c r="C313" t="s">
+        <v>576</v>
+      </c>
+      <c r="D313" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>649</v>
+      </c>
+      <c r="B314">
+        <v>3</v>
+      </c>
+      <c r="C314" t="s">
+        <v>564</v>
+      </c>
+      <c r="D314" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>651</v>
+      </c>
+      <c r="B315">
+        <v>3</v>
+      </c>
+      <c r="C315" t="s">
+        <v>497</v>
+      </c>
+      <c r="D315" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>653</v>
+      </c>
+      <c r="B316">
+        <v>3</v>
+      </c>
+      <c r="C316" t="s">
+        <v>633</v>
+      </c>
+      <c r="D316" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>655</v>
+      </c>
+      <c r="B317">
+        <v>3</v>
+      </c>
+      <c r="C317" t="s">
+        <v>438</v>
+      </c>
+      <c r="D317" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>657</v>
+      </c>
+      <c r="B318">
+        <v>3</v>
+      </c>
+      <c r="C318" t="s">
+        <v>576</v>
+      </c>
+      <c r="D318" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>659</v>
+      </c>
+      <c r="B319">
+        <v>3</v>
+      </c>
+      <c r="C319" t="s">
+        <v>519</v>
+      </c>
+      <c r="D319" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>661</v>
+      </c>
+      <c r="B320">
+        <v>3</v>
+      </c>
+      <c r="C320" t="s">
+        <v>497</v>
+      </c>
+      <c r="D320" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>663</v>
+      </c>
+      <c r="B321">
+        <v>3</v>
+      </c>
+      <c r="C321" t="s">
+        <v>633</v>
+      </c>
+      <c r="D321" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>665</v>
+      </c>
+      <c r="B322">
+        <v>3</v>
+      </c>
+      <c r="C322" t="s">
+        <v>438</v>
+      </c>
+      <c r="D322" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>667</v>
+      </c>
+      <c r="B323">
+        <v>3</v>
+      </c>
+      <c r="C323" t="s">
+        <v>576</v>
+      </c>
+      <c r="D323" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>669</v>
+      </c>
+      <c r="B324">
+        <v>3</v>
+      </c>
+      <c r="C324" t="s">
+        <v>670</v>
+      </c>
+      <c r="D324" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>672</v>
+      </c>
+      <c r="B325">
+        <v>3</v>
+      </c>
+      <c r="C325" t="s">
+        <v>497</v>
+      </c>
+      <c r="D325" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>674</v>
+      </c>
+      <c r="B326">
+        <v>3</v>
+      </c>
+      <c r="C326" t="s">
+        <v>633</v>
+      </c>
+      <c r="D326" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>676</v>
+      </c>
+      <c r="B327">
+        <v>3</v>
+      </c>
+      <c r="C327" t="s">
+        <v>438</v>
+      </c>
+      <c r="D327" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>678</v>
+      </c>
+      <c r="B328">
+        <v>3</v>
+      </c>
+      <c r="C328" t="s">
+        <v>576</v>
+      </c>
+      <c r="D328" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>680</v>
+      </c>
+      <c r="B329">
+        <v>3</v>
+      </c>
+      <c r="C329" t="s">
+        <v>519</v>
+      </c>
+      <c r="D329" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>682</v>
+      </c>
+      <c r="B330">
+        <v>3</v>
+      </c>
+      <c r="C330" t="s">
+        <v>670</v>
+      </c>
+      <c r="D330" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>684</v>
+      </c>
+      <c r="B331">
+        <v>3</v>
+      </c>
+      <c r="C331" t="s">
+        <v>497</v>
+      </c>
+      <c r="D331" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>686</v>
+      </c>
+      <c r="B332">
+        <v>3</v>
+      </c>
+      <c r="C332" t="s">
+        <v>633</v>
+      </c>
+      <c r="D332" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>688</v>
+      </c>
+      <c r="B333">
+        <v>3</v>
+      </c>
+      <c r="C333" t="s">
+        <v>438</v>
+      </c>
+      <c r="D333" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>690</v>
+      </c>
+      <c r="B334">
+        <v>3</v>
+      </c>
+      <c r="C334" t="s">
+        <v>530</v>
+      </c>
+      <c r="D334" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>692</v>
+      </c>
+      <c r="B335">
+        <v>3</v>
+      </c>
+      <c r="C335" t="s">
+        <v>519</v>
+      </c>
+      <c r="D335" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>694</v>
+      </c>
+      <c r="B336">
+        <v>3</v>
+      </c>
+      <c r="C336" t="s">
+        <v>670</v>
+      </c>
+      <c r="D336" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>696</v>
+      </c>
+      <c r="B337">
+        <v>3</v>
+      </c>
+      <c r="C337" t="s">
+        <v>497</v>
+      </c>
+      <c r="D337" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>698</v>
+      </c>
+      <c r="B338">
+        <v>3</v>
+      </c>
+      <c r="C338" t="s">
+        <v>633</v>
+      </c>
+      <c r="D338" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>700</v>
+      </c>
+      <c r="B339">
+        <v>3</v>
+      </c>
+      <c r="C339" t="s">
+        <v>438</v>
+      </c>
+      <c r="D339" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>702</v>
+      </c>
+      <c r="B340">
+        <v>3</v>
+      </c>
+      <c r="C340" t="s">
+        <v>465</v>
+      </c>
+      <c r="D340" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>704</v>
+      </c>
+      <c r="B341">
+        <v>3</v>
+      </c>
+      <c r="C341" t="s">
+        <v>519</v>
+      </c>
+      <c r="D341" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>706</v>
+      </c>
+      <c r="B342">
+        <v>3</v>
+      </c>
+      <c r="C342" t="s">
+        <v>670</v>
+      </c>
+      <c r="D342" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>708</v>
+      </c>
+      <c r="B343">
+        <v>3</v>
+      </c>
+      <c r="C343" t="s">
+        <v>438</v>
+      </c>
+      <c r="D343" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>710</v>
+      </c>
+      <c r="B344">
+        <v>3</v>
+      </c>
+      <c r="C344" t="s">
+        <v>633</v>
+      </c>
+      <c r="D344" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>712</v>
+      </c>
+      <c r="B345">
+        <v>3</v>
+      </c>
+      <c r="C345" t="s">
+        <v>438</v>
+      </c>
+      <c r="D345" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>714</v>
+      </c>
+      <c r="B346">
+        <v>3</v>
+      </c>
+      <c r="C346" t="s">
+        <v>633</v>
+      </c>
+      <c r="D346" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>716</v>
+      </c>
+      <c r="B347">
+        <v>3</v>
+      </c>
+      <c r="C347" t="s">
+        <v>465</v>
+      </c>
+      <c r="D347" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>718</v>
+      </c>
+      <c r="B348">
+        <v>3</v>
+      </c>
+      <c r="C348" t="s">
+        <v>564</v>
+      </c>
+      <c r="D348" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>720</v>
+      </c>
+      <c r="B349">
+        <v>3</v>
+      </c>
+      <c r="C349" t="s">
+        <v>519</v>
+      </c>
+      <c r="D349" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>722</v>
+      </c>
+      <c r="B350">
+        <v>3</v>
+      </c>
+      <c r="C350" t="s">
+        <v>670</v>
+      </c>
+      <c r="D350" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>724</v>
+      </c>
+      <c r="B351">
+        <v>3</v>
+      </c>
+      <c r="C351" t="s">
+        <v>633</v>
+      </c>
+      <c r="D351" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>726</v>
+      </c>
+      <c r="B352">
+        <v>3</v>
+      </c>
+      <c r="C352" t="s">
+        <v>438</v>
+      </c>
+      <c r="D352" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>728</v>
+      </c>
+      <c r="B353">
+        <v>3</v>
+      </c>
+      <c r="C353" t="s">
+        <v>729</v>
+      </c>
+      <c r="D353" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>731</v>
+      </c>
+      <c r="B354">
+        <v>3</v>
+      </c>
+      <c r="C354" t="s">
+        <v>465</v>
+      </c>
+      <c r="D354" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>733</v>
+      </c>
+      <c r="B355">
+        <v>3</v>
+      </c>
+      <c r="C355" t="s">
+        <v>564</v>
+      </c>
+      <c r="D355" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>735</v>
+      </c>
+      <c r="B356">
+        <v>3</v>
+      </c>
+      <c r="C356" t="s">
+        <v>519</v>
+      </c>
+      <c r="D356" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>737</v>
+      </c>
+      <c r="B357">
+        <v>3</v>
+      </c>
+      <c r="C357" t="s">
+        <v>670</v>
+      </c>
+      <c r="D357" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>739</v>
+      </c>
+      <c r="B358">
+        <v>3</v>
+      </c>
+      <c r="C358" t="s">
+        <v>633</v>
+      </c>
+      <c r="D358" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>741</v>
+      </c>
+      <c r="B359">
+        <v>3</v>
+      </c>
+      <c r="C359" t="s">
+        <v>465</v>
+      </c>
+      <c r="D359" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>743</v>
+      </c>
+      <c r="B360">
+        <v>3</v>
+      </c>
+      <c r="C360" t="s">
+        <v>564</v>
+      </c>
+      <c r="D360" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>745</v>
+      </c>
+      <c r="B361">
+        <v>3</v>
+      </c>
+      <c r="C361" t="s">
+        <v>519</v>
+      </c>
+      <c r="D361" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>747</v>
+      </c>
+      <c r="B362">
+        <v>3</v>
+      </c>
+      <c r="C362" t="s">
+        <v>670</v>
+      </c>
+      <c r="D362" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>749</v>
+      </c>
+      <c r="B363">
+        <v>3</v>
+      </c>
+      <c r="C363" t="s">
+        <v>438</v>
+      </c>
+      <c r="D363" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>751</v>
+      </c>
+      <c r="B364">
+        <v>3</v>
+      </c>
+      <c r="C364" t="s">
+        <v>465</v>
+      </c>
+      <c r="D364" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>753</v>
+      </c>
+      <c r="B365">
+        <v>3</v>
+      </c>
+      <c r="C365" t="s">
+        <v>564</v>
+      </c>
+      <c r="D365" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>755</v>
+      </c>
+      <c r="B366">
+        <v>3</v>
+      </c>
+      <c r="C366" t="s">
+        <v>519</v>
+      </c>
+      <c r="D366" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>757</v>
+      </c>
+      <c r="B367">
+        <v>3</v>
+      </c>
+      <c r="C367" t="s">
+        <v>497</v>
+      </c>
+      <c r="D367" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>759</v>
+      </c>
+      <c r="B368">
+        <v>3</v>
+      </c>
+      <c r="C368" t="s">
+        <v>760</v>
+      </c>
+      <c r="D368" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>761</v>
+      </c>
+      <c r="B369">
+        <v>3</v>
+      </c>
+      <c r="C369" t="s">
+        <v>438</v>
+      </c>
+      <c r="D369" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>763</v>
+      </c>
+      <c r="B370">
+        <v>3</v>
+      </c>
+      <c r="C370" t="s">
+        <v>465</v>
+      </c>
+      <c r="D370" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>765</v>
+      </c>
+      <c r="B371">
+        <v>3</v>
+      </c>
+      <c r="C371" t="s">
+        <v>564</v>
+      </c>
+      <c r="D371" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>767</v>
+      </c>
+      <c r="B372">
+        <v>3</v>
+      </c>
+      <c r="C372" t="s">
+        <v>519</v>
+      </c>
+      <c r="D372" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>769</v>
+      </c>
+      <c r="B373">
+        <v>3</v>
+      </c>
+      <c r="C373" t="s">
+        <v>569</v>
+      </c>
+      <c r="D373" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>771</v>
+      </c>
+      <c r="B374">
+        <v>3</v>
+      </c>
+      <c r="C374" t="s">
+        <v>438</v>
+      </c>
+      <c r="D374" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>773</v>
+      </c>
+      <c r="B375">
+        <v>3</v>
+      </c>
+      <c r="C375" t="s">
+        <v>465</v>
+      </c>
+      <c r="D375" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>775</v>
+      </c>
+      <c r="B376">
+        <v>3</v>
+      </c>
+      <c r="C376" t="s">
+        <v>564</v>
+      </c>
+      <c r="D376" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>777</v>
+      </c>
+      <c r="B377">
+        <v>3</v>
+      </c>
+      <c r="C377" t="s">
+        <v>519</v>
+      </c>
+      <c r="D377" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>779</v>
+      </c>
+      <c r="B378">
+        <v>3</v>
+      </c>
+      <c r="C378" t="s">
+        <v>569</v>
+      </c>
+      <c r="D378" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>781</v>
+      </c>
+      <c r="B379">
+        <v>3</v>
+      </c>
+      <c r="C379" t="s">
+        <v>438</v>
+      </c>
+      <c r="D379" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>783</v>
+      </c>
+      <c r="B380">
+        <v>3</v>
+      </c>
+      <c r="C380" t="s">
+        <v>465</v>
+      </c>
+      <c r="D380" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>785</v>
+      </c>
+      <c r="B381">
+        <v>3</v>
+      </c>
+      <c r="C381" t="s">
+        <v>564</v>
+      </c>
+      <c r="D381" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>787</v>
+      </c>
+      <c r="B382">
+        <v>3</v>
+      </c>
+      <c r="C382" t="s">
+        <v>519</v>
+      </c>
+      <c r="D382" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>789</v>
+      </c>
+      <c r="B383">
+        <v>3</v>
+      </c>
+      <c r="C383" t="s">
+        <v>569</v>
+      </c>
+      <c r="D383" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>791</v>
+      </c>
+      <c r="B384">
+        <v>3</v>
+      </c>
+      <c r="C384" t="s">
+        <v>438</v>
+      </c>
+      <c r="D384" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>793</v>
+      </c>
+      <c r="B385">
+        <v>3</v>
+      </c>
+      <c r="C385" t="s">
+        <v>465</v>
+      </c>
+      <c r="D385" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>795</v>
+      </c>
+      <c r="B386">
+        <v>3</v>
+      </c>
+      <c r="C386" t="s">
+        <v>564</v>
+      </c>
+      <c r="D386" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>797</v>
+      </c>
+      <c r="B387">
+        <v>3</v>
+      </c>
+      <c r="C387" t="s">
+        <v>519</v>
+      </c>
+      <c r="D387" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>799</v>
+      </c>
+      <c r="B388">
+        <v>3</v>
+      </c>
+      <c r="C388" t="s">
+        <v>569</v>
+      </c>
+      <c r="D388" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>801</v>
+      </c>
+      <c r="B389">
+        <v>3</v>
+      </c>
+      <c r="C389" t="s">
+        <v>802</v>
+      </c>
+      <c r="D389" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>804</v>
+      </c>
+      <c r="B390">
+        <v>3</v>
+      </c>
+      <c r="C390" t="s">
+        <v>802</v>
+      </c>
+      <c r="D390" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>806</v>
+      </c>
+      <c r="B391">
+        <v>3</v>
+      </c>
+      <c r="C391" t="s">
+        <v>802</v>
+      </c>
+      <c r="D391" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>808</v>
+      </c>
+      <c r="B392">
+        <v>3</v>
+      </c>
+      <c r="C392" t="s">
+        <v>802</v>
+      </c>
+      <c r="D392" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>810</v>
+      </c>
+      <c r="B393">
+        <v>3</v>
+      </c>
+      <c r="C393" t="s">
+        <v>802</v>
+      </c>
+      <c r="D393" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>812</v>
+      </c>
+      <c r="B394">
+        <v>3</v>
+      </c>
+      <c r="C394" t="s">
+        <v>802</v>
+      </c>
+      <c r="D394" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>814</v>
+      </c>
+      <c r="B395">
+        <v>3</v>
+      </c>
+      <c r="C395" t="s">
+        <v>802</v>
+      </c>
+      <c r="D395" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>816</v>
+      </c>
+      <c r="B396">
+        <v>3</v>
+      </c>
+      <c r="C396" t="s">
+        <v>802</v>
+      </c>
+      <c r="D396" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>818</v>
+      </c>
+      <c r="B397">
+        <v>3</v>
+      </c>
+      <c r="C397" t="s">
+        <v>802</v>
+      </c>
+      <c r="D397" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>820</v>
+      </c>
+      <c r="B398">
+        <v>3</v>
+      </c>
+      <c r="C398" t="s">
+        <v>802</v>
+      </c>
+      <c r="D398" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>822</v>
+      </c>
+      <c r="B399">
+        <v>3</v>
+      </c>
+      <c r="C399" t="s">
+        <v>802</v>
+      </c>
+      <c r="D399" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>824</v>
+      </c>
+      <c r="B400">
+        <v>3</v>
+      </c>
+      <c r="C400" t="s">
+        <v>802</v>
+      </c>
+      <c r="D400" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>826</v>
+      </c>
+      <c r="B401">
+        <v>3</v>
+      </c>
+      <c r="C401" t="s">
+        <v>802</v>
+      </c>
+      <c r="D401" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>828</v>
+      </c>
+      <c r="B402">
+        <v>3</v>
+      </c>
+      <c r="C402" t="s">
+        <v>802</v>
+      </c>
+      <c r="D402" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>830</v>
+      </c>
+      <c r="B403">
+        <v>3</v>
+      </c>
+      <c r="C403" t="s">
+        <v>802</v>
+      </c>
+      <c r="D403" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>832</v>
+      </c>
+      <c r="B404">
+        <v>3</v>
+      </c>
+      <c r="C404" t="s">
+        <v>802</v>
+      </c>
+      <c r="D404" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>834</v>
+      </c>
+      <c r="B405">
+        <v>3</v>
+      </c>
+      <c r="C405" t="s">
+        <v>802</v>
+      </c>
+      <c r="D405" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>836</v>
+      </c>
+      <c r="B406">
+        <v>3</v>
+      </c>
+      <c r="C406" t="s">
+        <v>802</v>
+      </c>
+      <c r="D406" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>838</v>
+      </c>
+      <c r="B407">
+        <v>3</v>
+      </c>
+      <c r="C407" t="s">
+        <v>839</v>
+      </c>
+      <c r="D407" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>840</v>
+      </c>
+      <c r="B408">
+        <v>3</v>
+      </c>
+      <c r="C408" t="s">
+        <v>564</v>
+      </c>
+      <c r="D408" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>842</v>
+      </c>
+      <c r="B409">
+        <v>3</v>
+      </c>
+      <c r="C409" t="s">
+        <v>443</v>
+      </c>
+      <c r="D409" t="s">
+        <v>843</v>
       </c>
     </row>
   </sheetData>
